--- a/SupportingDocs/ICA_components.xlsx
+++ b/SupportingDocs/ICA_components.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,118 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OG_Repos\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE7499A-70E2-4A45-A392-79136A84AF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49AD4B5-096E-4F6D-8694-D50F8DCA8185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="855" windowWidth="21600" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
   <si>
     <t>SUBID</t>
   </si>
@@ -49,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -57,12 +156,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,38 +498,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="true"/>
+    <col min="2" max="2" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="0"/>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>4</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SupportingDocs/ICA_components.xlsx
+++ b/SupportingDocs/ICA_components.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,118 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OG_Repos\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49AD4B5-096E-4F6D-8694-D50F8DCA8185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DE5F3-6BC8-4664-8D54-A97E66F654B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="855" windowWidth="21600" windowHeight="11445"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SUBID</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>SUBID</t>
   </si>
@@ -148,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -156,34 +57,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,42 +377,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.42578125" customWidth="true"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>33</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>35</v>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>34</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
+      <c r="C2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SupportingDocs/ICA_components.xlsx
+++ b/SupportingDocs/ICA_components.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OG_Repos\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DE5F3-6BC8-4664-8D54-A97E66F654B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29179F6D-3A48-4E65-ADAF-4C70C5431C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>SUBID</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
   <si>
     <t>SUBID</t>
   </si>
@@ -49,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,12 +66,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,33 +390,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="true"/>
+    <col min="2" max="2" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
+      <c r="B2" s="0"/>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
